--- a/Solvarg_Framework/Assets/AssetPackage/database/excel_database/ModelConfig.xlsx
+++ b/Solvarg_Framework/Assets/AssetPackage/database/excel_database/ModelConfig.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="16475" windowHeight="8904"/>
   </bookViews>
   <sheets>
-    <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
